--- a/Relevant topics of Dot Net.xlsx
+++ b/Relevant topics of Dot Net.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="SDLC" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Swagger Integration with API" sheetId="6" r:id="rId6"/>
     <sheet name="CORS" sheetId="7" r:id="rId7"/>
     <sheet name="JIRA Board and Agile" sheetId="8" r:id="rId8"/>
+    <sheet name="Azure" sheetId="9" r:id="rId9"/>
+    <sheet name="Web API" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="382">
   <si>
     <t>Day</t>
   </si>
@@ -576,13 +578,604 @@
   </si>
   <si>
     <t>Will give one token we have to decode the token and explain the meta properties in JWT token</t>
+  </si>
+  <si>
+    <t>Assignments and POC</t>
+  </si>
+  <si>
+    <t>Introduction to Azure</t>
+  </si>
+  <si>
+    <t>- Microsoft Azure Overview</t>
+  </si>
+  <si>
+    <t>- Cloud Computing Basics</t>
+  </si>
+  <si>
+    <t>- Cloud Deployment Models</t>
+  </si>
+  <si>
+    <t>Research: Compare Azure with AWS and GCP</t>
+  </si>
+  <si>
+    <t>2 hrs: Azure overview</t>
+  </si>
+  <si>
+    <t>2 hrs: Cloud computing basics</t>
+  </si>
+  <si>
+    <t>4 hrs: Hands-on portal navigation and setting up free tier</t>
+  </si>
+  <si>
+    <t>Virtual Machines</t>
+  </si>
+  <si>
+    <t>- Virtualization Basics</t>
+  </si>
+  <si>
+    <t>- Virtual Machine Types</t>
+  </si>
+  <si>
+    <t>- Azure Deployment Models</t>
+  </si>
+  <si>
+    <t>Create a basic Windows and Linux VM on Azure</t>
+  </si>
+  <si>
+    <t>3 hrs: Theory</t>
+  </si>
+  <si>
+    <t>5 hrs: Creating, configuring, and scaling VMs</t>
+  </si>
+  <si>
+    <t>Configuring Virtual Machines</t>
+  </si>
+  <si>
+    <t>- VM Architecture</t>
+  </si>
+  <si>
+    <t>- Disk Layouts</t>
+  </si>
+  <si>
+    <t>- Network Security Groups</t>
+  </si>
+  <si>
+    <t>- Extensions</t>
+  </si>
+  <si>
+    <t>Setup a VM with custom extensions and security rules</t>
+  </si>
+  <si>
+    <t>3 hrs: Configuring security groups</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on VM creation and extension setup</t>
+  </si>
+  <si>
+    <t>Virtual Machine Scaling</t>
+  </si>
+  <si>
+    <t>- Availability Sets</t>
+  </si>
+  <si>
+    <t>- Fault Domains</t>
+  </si>
+  <si>
+    <t>- Virtual Machine Scale Sets</t>
+  </si>
+  <si>
+    <t>Create a scalable web app using VM scale sets</t>
+  </si>
+  <si>
+    <t>3 hrs: Scaling concepts</t>
+  </si>
+  <si>
+    <t>5 hrs: Setting up availability sets and scale sets</t>
+  </si>
+  <si>
+    <t>Azure Storage</t>
+  </si>
+  <si>
+    <t>- Introduction to Storage</t>
+  </si>
+  <si>
+    <t>- Blob, Table, Queue, Disk Storage</t>
+  </si>
+  <si>
+    <t>- Access Tiers and Redundancy</t>
+  </si>
+  <si>
+    <t>Upload files to Blob storage, configure access tiers, and set up monitoring</t>
+  </si>
+  <si>
+    <t>3 hrs: Theory on Azure Storage</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on configuration</t>
+  </si>
+  <si>
+    <t>Azure Storage Tools</t>
+  </si>
+  <si>
+    <t>- Azure Storage Explorer</t>
+  </si>
+  <si>
+    <t>- Monitoring and Access Control</t>
+  </si>
+  <si>
+    <t>Create a monitoring dashboard for storage usage</t>
+  </si>
+  <si>
+    <t>2 hrs: Tools overview</t>
+  </si>
+  <si>
+    <t>6 hrs: Hands-on with storage tools and monitoring</t>
+  </si>
+  <si>
+    <t>App Services</t>
+  </si>
+  <si>
+    <t>- Overview of App Services</t>
+  </si>
+  <si>
+    <t>- Creating and Deploying ASP.NET Applications</t>
+  </si>
+  <si>
+    <t>Deploy an ASP.NET web app using Azure App Service</t>
+  </si>
+  <si>
+    <t>4 hrs: App Service Theory</t>
+  </si>
+  <si>
+    <t>4 hrs: Hands-on deployment</t>
+  </si>
+  <si>
+    <t>Serverless Architecture</t>
+  </si>
+  <si>
+    <t>- Azure Functions Overview</t>
+  </si>
+  <si>
+    <t>- Event-driven programming</t>
+  </si>
+  <si>
+    <t>- Practical Implementation</t>
+  </si>
+  <si>
+    <t>Create a function to process data from Blob storage</t>
+  </si>
+  <si>
+    <t>5 hrs: Azure Functions hands-on</t>
+  </si>
+  <si>
+    <t>Messaging Services</t>
+  </si>
+  <si>
+    <t>- Service Bus</t>
+  </si>
+  <si>
+    <t>- Event Hub</t>
+  </si>
+  <si>
+    <t>- Notification Hub</t>
+  </si>
+  <si>
+    <t>Implement a queue-based messaging system</t>
+  </si>
+  <si>
+    <t>4 hrs: Messaging concepts</t>
+  </si>
+  <si>
+    <t>4 hrs: Hands-on with messaging services</t>
+  </si>
+  <si>
+    <t>Azure Cosmos DB</t>
+  </si>
+  <si>
+    <t>- Overview of Cosmos DB</t>
+  </si>
+  <si>
+    <t>- APIs: MongoDB, Gremlin</t>
+  </si>
+  <si>
+    <t>- Emulator and Hands-on Practice</t>
+  </si>
+  <si>
+    <t>Create a database with collections and query data</t>
+  </si>
+  <si>
+    <t>4 hrs: Cosmos DB Concepts</t>
+  </si>
+  <si>
+    <t>4 hrs: Hands-on with emulator and APIs</t>
+  </si>
+  <si>
+    <t>Azure SQL Database</t>
+  </si>
+  <si>
+    <t>- Introduction to Azure SQL</t>
+  </si>
+  <si>
+    <t>- Scalable Performance and Pools</t>
+  </si>
+  <si>
+    <t>- Migration Tools</t>
+  </si>
+  <si>
+    <t>Migrate a local SQL database to Azure</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on migration</t>
+  </si>
+  <si>
+    <t>Azure Active Directory (AAD)</t>
+  </si>
+  <si>
+    <t>- Introduction to AAD</t>
+  </si>
+  <si>
+    <t>- Implementing Single Sign-On</t>
+  </si>
+  <si>
+    <t>Integrate AAD for a web application</t>
+  </si>
+  <si>
+    <t>5 hrs: SSO implementation</t>
+  </si>
+  <si>
+    <t>Monitoring and Security</t>
+  </si>
+  <si>
+    <t>- Azure Monitor</t>
+  </si>
+  <si>
+    <t>- Key Vault</t>
+  </si>
+  <si>
+    <t>- Network Security</t>
+  </si>
+  <si>
+    <t>Setup monitoring for deployed services and secure access keys using Key Vault</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on monitoring setup and Key Vault configuration</t>
+  </si>
+  <si>
+    <t>Capstone Project</t>
+  </si>
+  <si>
+    <t>- Build a Food Delivery Platform</t>
+  </si>
+  <si>
+    <t>- Combine VMs, App Services, Functions, and Messaging Services</t>
+  </si>
+  <si>
+    <t>Complete the real-world ePizzaHub project</t>
+  </si>
+  <si>
+    <t>8 hrs: End-to-end implementation of the capstone project</t>
+  </si>
+  <si>
+    <t>Exam Preparation</t>
+  </si>
+  <si>
+    <t>- Review AZ-204 Objectives</t>
+  </si>
+  <si>
+    <t>- Practice Mock Tests</t>
+  </si>
+  <si>
+    <t>- Recap Key Concepts</t>
+  </si>
+  <si>
+    <t>Take a timed mock exam and analyze results</t>
+  </si>
+  <si>
+    <t>8 hrs: Practice tests and revision</t>
+  </si>
+  <si>
+    <t>Introduction to Web API</t>
+  </si>
+  <si>
+    <t>- Overview of Web APIs</t>
+  </si>
+  <si>
+    <t>- RESTful Services</t>
+  </si>
+  <si>
+    <t>- HTTP Protocol Basics</t>
+  </si>
+  <si>
+    <t>Research RESTful principles and create a simple API design</t>
+  </si>
+  <si>
+    <t>2 hrs: REST basics</t>
+  </si>
+  <si>
+    <t>2 hrs: HTTP methods overview</t>
+  </si>
+  <si>
+    <t>4 hrs: Explore existing REST APIs</t>
+  </si>
+  <si>
+    <t>Setting up .NET Web API</t>
+  </si>
+  <si>
+    <t>- Installing .NET SDK</t>
+  </si>
+  <si>
+    <t>- Creating a Web API Project in Visual Studio</t>
+  </si>
+  <si>
+    <t>- Folder Structure Overview</t>
+  </si>
+  <si>
+    <t>Create a new .NET Web API project in Visual Studio</t>
+  </si>
+  <si>
+    <t>2 hrs: Install tools</t>
+  </si>
+  <si>
+    <t>2 hrs: Create and explore project structure</t>
+  </si>
+  <si>
+    <t>4 hrs: Build and run a HelloWorld API</t>
+  </si>
+  <si>
+    <t>Controllers and Routing</t>
+  </si>
+  <si>
+    <t>- Understanding Controllers</t>
+  </si>
+  <si>
+    <t>- Attribute Routing</t>
+  </si>
+  <si>
+    <t>- Convention-based Routing</t>
+  </si>
+  <si>
+    <t>Build a controller with multiple endpoints</t>
+  </si>
+  <si>
+    <t>3 hrs: Theory on routing</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on routing and creating APIs</t>
+  </si>
+  <si>
+    <t>HTTP Methods in Web API</t>
+  </si>
+  <si>
+    <t>- GET, POST, PUT, DELETE</t>
+  </si>
+  <si>
+    <t>- Request/Response Models</t>
+  </si>
+  <si>
+    <t>Build endpoints for CRUD operations</t>
+  </si>
+  <si>
+    <t>2 hrs: HTTP methods theory</t>
+  </si>
+  <si>
+    <t>6 hrs: Build CRUD operations for an entity</t>
+  </si>
+  <si>
+    <t>Models and Data Binding</t>
+  </si>
+  <si>
+    <t>- Creating Models</t>
+  </si>
+  <si>
+    <t>- Model Binding</t>
+  </si>
+  <si>
+    <t>- Data Annotations for Validation</t>
+  </si>
+  <si>
+    <t>Build a model and apply validation attributes</t>
+  </si>
+  <si>
+    <t>3 hrs: Theory on models</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on model creation and validation</t>
+  </si>
+  <si>
+    <t>Dependency Injection (DI)</t>
+  </si>
+  <si>
+    <t>- Introduction to DI</t>
+  </si>
+  <si>
+    <t>- Registering Services</t>
+  </si>
+  <si>
+    <t>- Constructor Injection</t>
+  </si>
+  <si>
+    <t>Add a service to the Web API project and use it in controllers</t>
+  </si>
+  <si>
+    <t>2 hrs: DI concepts</t>
+  </si>
+  <si>
+    <t>6 hrs: Implement DI in your project</t>
+  </si>
+  <si>
+    <t>Entity Framework Core</t>
+  </si>
+  <si>
+    <t>- Setting up EF Core</t>
+  </si>
+  <si>
+    <t>- Code-first and DB-first approaches</t>
+  </si>
+  <si>
+    <t>- DbContext and DbSet</t>
+  </si>
+  <si>
+    <t>Create a database and integrate it with Web API</t>
+  </si>
+  <si>
+    <t>3 hrs: EF Core overview</t>
+  </si>
+  <si>
+    <t>5 hrs: Code-first approach hands-on</t>
+  </si>
+  <si>
+    <t>Working with Databases</t>
+  </si>
+  <si>
+    <t>- CRUD Operations with EF Core</t>
+  </si>
+  <si>
+    <t>- Querying Data</t>
+  </si>
+  <si>
+    <t>- Transactions</t>
+  </si>
+  <si>
+    <t>Implement CRUD operations using EF Core</t>
+  </si>
+  <si>
+    <t>3 hrs: Querying data</t>
+  </si>
+  <si>
+    <t>5 hrs: Build CRUD with database integration</t>
+  </si>
+  <si>
+    <t>Exception Handling</t>
+  </si>
+  <si>
+    <t>- Handling Exceptions</t>
+  </si>
+  <si>
+    <t>- Global Error Handling</t>
+  </si>
+  <si>
+    <t>- Middleware for Error Logging</t>
+  </si>
+  <si>
+    <t>Add exception handling to the Web API</t>
+  </si>
+  <si>
+    <t>3 hrs: Error handling theory</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on implementation of exception handling</t>
+  </si>
+  <si>
+    <t>Authentication and Security</t>
+  </si>
+  <si>
+    <t>- JWT Authentication</t>
+  </si>
+  <si>
+    <t>- Securing Endpoints</t>
+  </si>
+  <si>
+    <t>- Role-based Authorization</t>
+  </si>
+  <si>
+    <t>Secure your Web API using JWT tokens</t>
+  </si>
+  <si>
+    <t>4 hrs: JWT and security concepts</t>
+  </si>
+  <si>
+    <t>4 hrs: Hands-on securing API endpoints</t>
+  </si>
+  <si>
+    <t>Swagger and API Documentation</t>
+  </si>
+  <si>
+    <t>- Setting up Swagger UI</t>
+  </si>
+  <si>
+    <t>- Generating API Documentation</t>
+  </si>
+  <si>
+    <t>Add Swagger to the project and generate documentation</t>
+  </si>
+  <si>
+    <t>2 hrs: Swagger concepts</t>
+  </si>
+  <si>
+    <t>6 hrs: Implement and customize Swagger</t>
+  </si>
+  <si>
+    <t>Middleware and Filters</t>
+  </si>
+  <si>
+    <t>- Building Middleware</t>
+  </si>
+  <si>
+    <t>- Action Filters</t>
+  </si>
+  <si>
+    <t>- Exception Filters</t>
+  </si>
+  <si>
+    <t>Build a custom middleware and use filters in controllers</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on middleware and filter creation</t>
+  </si>
+  <si>
+    <t>Versioning and Caching</t>
+  </si>
+  <si>
+    <t>- API Versioning Techniques</t>
+  </si>
+  <si>
+    <t>- In-memory Caching</t>
+  </si>
+  <si>
+    <t>- Response Caching</t>
+  </si>
+  <si>
+    <t>Implement versioning and caching in your API</t>
+  </si>
+  <si>
+    <t>4 hrs: Theory</t>
+  </si>
+  <si>
+    <t>4 hrs: Versioning and caching implementation</t>
+  </si>
+  <si>
+    <t>Deployment and Hosting</t>
+  </si>
+  <si>
+    <t>- Hosting Web API on IIS/Azure</t>
+  </si>
+  <si>
+    <t>- Dockerizing the Web API</t>
+  </si>
+  <si>
+    <t>Deploy the Web API to Azure or a Docker container</t>
+  </si>
+  <si>
+    <t>3 hrs: Deployment concepts</t>
+  </si>
+  <si>
+    <t>5 hrs: Hands-on deployment</t>
+  </si>
+  <si>
+    <t>- Build a CRUD Application with all learned concepts</t>
+  </si>
+  <si>
+    <t>Complete a mini-project (e.g., Task Manager API)</t>
+  </si>
+  <si>
+    <t>8 hrs: End-to-end implementation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,16 +1191,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -615,11 +1226,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -634,6 +1330,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -932,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
@@ -1147,36 +1870,630 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="57" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="99.75">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="72" thickBot="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="71.25">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="85.5">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5" ht="57">
+      <c r="A11" s="12">
+        <v>4</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="86.25" thickBot="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="57">
+      <c r="A13" s="12">
+        <v>5</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="85.5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="10" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="72" thickBot="1">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5" ht="42.75">
+      <c r="A16" s="12">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="71.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5" ht="42.75">
+      <c r="A19" s="12">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="71.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5" ht="57">
+      <c r="A22" s="12">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="99.75">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="85.5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72" thickBot="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="57">
+      <c r="A28" s="12">
+        <v>10</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="85.5">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="57">
+      <c r="A31" s="12">
+        <v>11</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="86.25" thickBot="1">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42.75">
+      <c r="A33" s="12">
+        <v>12</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="85.5">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" ht="71.25">
+      <c r="A36" s="12">
+        <v>13</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="85.5">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="57">
+      <c r="A39" s="12">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="11" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="100.5" thickBot="1">
+      <c r="A41" s="9">
+        <v>15</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1557,7 +2874,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1678,7 +2995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2036,4 +3355,619 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="51.5703125" customWidth="1"/>
+    <col min="5" max="5" width="48.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="114.75" thickBot="1">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="42.75">
+      <c r="A5" s="12">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="85.5">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" ht="71.25">
+      <c r="A8" s="12">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="99.75">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5" ht="42.75">
+      <c r="A12" s="12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="99.75">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5" ht="57">
+      <c r="A15" s="12">
+        <v>5</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="71.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="57.75" thickBot="1">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5" ht="42.75">
+      <c r="A18" s="12">
+        <v>6</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="100.5" thickBot="1">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="57">
+      <c r="A20" s="12">
+        <v>7</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="114.75" thickBot="1">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="11" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="42.75">
+      <c r="A22" s="12">
+        <v>8</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="57">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5" ht="57">
+      <c r="A25" s="12">
+        <v>9</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="85.5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="1:5" ht="71.25">
+      <c r="A28" s="12">
+        <v>10</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="71.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="10" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="72" thickBot="1">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:5" ht="71.25">
+      <c r="A31" s="12">
+        <v>11</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="57">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="10" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" ht="57">
+      <c r="A34" s="12">
+        <v>12</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="72" thickBot="1">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="28.5">
+      <c r="A36" s="12">
+        <v>13</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="114">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="13"/>
+      <c r="E37" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="14"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" ht="57">
+      <c r="A39" s="12">
+        <v>14</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="129" thickBot="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="57">
+      <c r="A41" s="12">
+        <v>15</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="42.75">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" ht="43.5" thickBot="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="D31:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="D5:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>